--- a/기능정의서/WBS.xlsx
+++ b/기능정의서/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RainBow\프로젝트\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BCB7D3-CA65-4489-BE22-F6580D829EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10A25B0-617A-4CAC-9217-B9A7958518A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,16 @@
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="구장관리" sheetId="2" r:id="rId2"/>
     <sheet name="매칭관리" sheetId="3" r:id="rId3"/>
+    <sheet name="일정관리" sheetId="4" r:id="rId4"/>
+    <sheet name="회원관리" sheetId="5" r:id="rId5"/>
+    <sheet name="채팅" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="344">
   <si>
     <t>WBS ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,18 +781,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매칭 상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내 매칭내역 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매칭카드의 상세정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매칭 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매칭카드 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매칭신청 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,10 +830,6 @@
   </si>
   <si>
     <t>selectAllMatching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectDetailMatching</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -919,12 +906,601 @@
 		WHERE STADIUM_CODE ='';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SELECT COUNT(*)
+	FROM SCHEDULE
+		WHERE STADIUM_CODE =''
+		AND GAME_DATE &gt; SYSDATE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ADMIN_ID
+   FROM STADIUM_ADMIN
+      WHERE ADMIN_ID = ''
+      AND ADMIN_PW = '';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM STADIUM
+	WHERE STADIUM_CODE='';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO STADIUM 
+	VALUES(
+	(SELECT SUBSTR(MAX(STADIUM_CODE), 0, 2) || TO_CHAR(SUBSTR(MAX(STADIUM_CODE), 3)+1, 'FM0000')
+		FROM STADIUM) ,'','','','','','')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT M.APPLIED_TEAM_ID, T.PLAYGROUND, T.STAT, M.RESERVATION_STADIUM, M.MATCHING_STYLE, M.APPLIED_TEAM_INFO
+	FROM MATCHING_CARD M 
+	JOIN TEAM T ON M.APPLIED_TEAM_ID = T.TEAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭 성사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭이 성사되면 해당 매칭을 성사된 매칭으로 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭카드의 해당 매칭은 성사여부를 'Y'로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO MATCHING_CARD
+VALUES (MATCHING_SEQ.NEXTVAL,'','','','','','','')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT MC.GAME_DATE, MC.APPLIED_TEAM_ID, MC.RESERVATION_STADIUM, MC.MATCHING_STYLE, SM.COMMENTS 
+	FROM (SCHEDULED_MATCHING SM 
+			JOIN MATCHING_CARD MC ON SM.MATCHING_NUMBER = MC.MATCHING_NUMBER)
+			JOIN TEAM T ON MC.REGIST_TEAM_ID = T.TEAM_ID
+		WHERE T.PLAYGROUND LIKE '%1%' OR MC.REGIST_TEAM_ID LIKE '%1%' OR MC.MATCHING_STYLE LIKE '%1%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*)
+	FROM MATCHING_CARD
+		WHERE APPLIED_TEAM_ID ='' AND ACCOMPLISH ='N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE MATCHING_CARD SET ACCOMPLISH='Y'
+	WHERE MATCHING_NUMBER=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO SCHEDULED_MATCHING 
+	VALUES ('','','','')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM MATCHING_CARD 
+	WHERE MATCHING_NUMBER=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭신청 여부 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭성사여부 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성사된 매칭 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT APPLIED_TEAM_ID
+	FROM MATCHING_CARD
+		WHERE MATCHING_NUMBER=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 수락되지 않은 매칭신청에 한해 신청 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE MATCHING_CARD 
+	SET APPLIED_TEAM_ID = NULL, APPLIED_TEAM_INFO=NULL
+		WHERE MATCHING_NUMBER='' AND ACCOMPLISH='N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULED_MATCHING 
+	SET COMMENTS=''
+		WHERE MATCHING_NUMBER=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE MATCHING_CARD
+	SET MATCHING_STYLE='', RESERVATION_STADIUM=''
+		WHERE MATCHING_NUMBER=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT MC.MATCHING_NUMBER, MC.GAME_DATE, MC.APPLIED_TEAM_ID, MC.RESERVATION_STADIUM, MC.MATCHING_STYLE, SM.COMMENTS 
+	FROM SCHEDULED_MATCHING SM 
+	JOIN MATCHING_CARD MC ON SM.MATCHING_NUMBER = MC.MATCHING_NUMBER
+		WHERE MC.REGIST_TEAM_ID = '' OR MC.APPLIED_TEAM_ID = ''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String playground 
+or team_id 
+or matchingStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String team_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE MATCHING_CARD 
+	SET APPLIED_TEAM_ID='', APPLIED_TEAM_INFO=''
+		WHERE MATCHING_NUMBER=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 일정등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO SCHEDULE(SCHEDULE_ID, STADIUM_CODE, GAME_DATE)
+VALUES(SCHEDULE_SEQ.NEXTVAL,#{stadium_code}, #{game_date});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈팀 일정등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET HOME_RESERVATION = 'N'
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeRegisterSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈팀 최종등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET HOME_RESERVATION = 'Y', HOME_TEAM = #{team_id}
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeConfirmSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어웨이팀 일정등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET AWAY_RESERVATION = 'N'
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awayRegisterSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어웨이팀 최종등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET AWAY_RESERVATION = 'Y', AWAY_TEAM = #{team_id}
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awayConfirmSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈팀 일정취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET HOME_CANCEL = 'N'
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈팀 최종취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET HOME_CANCEL = '', HOME_RESERVATION = '', HOME_TEAM = ''
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeCancelConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어웨이팀 일정취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET AWAY_CANCEL = 'N'
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awayCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어웨이팀 최종취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SCHEDULE
+SET AWAY_CANCEL = '', AWAY_RESERVATION = '', AWAY_TEAM= ''
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awayCancelConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM SCHEDULE 
+WHERE SCHEDULE_ID = #{schedule_id};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 일정 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT NVL(HOME_TEAM,'홈팀 없음'), NVL(AWAY_TEAM, '어웨이팀 없음')
+FROM SCHEDULE
+WHERE GAME_DATE = #{game_date};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT MEMBER_ID
+	FROM MEMBERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO MEMBERS (MEMBER_ID) VALUES(#{member_id});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apiLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM MEMBERS WHERE MEMBER_ID= #{member_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO TEAM
+(TEAM_ID, TEAM_PW, CAPTAIN_ID, CAPTAIN_PHONE_NUMBER, PLAYGROUND, QUESTION, ANSWER, DORMANT_ID)
+VALUES(#{team_id}, #{team_pw}, #{captain_id}, #{captain_phone_number}, #{playground}, #{question}, #{answer}, #{dormant_id})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamRegist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT TEAM_ID
+	FROM TEAM
+		WHERE TEAM_ID = #{team_id} AND TEAM_PW = #{team_pw}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(TEAM_ID)
+	FROM TEAM
+		WHERE TEAM_ID = #{team_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamDuplicateId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT TEAM_ID, TEAM_PW, CAPTAIN_ID, CAPTAIN_PHONE_NUMBER, PLAYGROUND, QUESTION, ANSWER, DORMANT_ID
+FROM TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE TEAM
+SET TEAM_PW= #{team_pw}, CAPTAIN_ID= #{captain_id}, CAPTAIN_PHONE_NUMBER= #{captain_phone_number}, PLAYGROUND= #{playground}, QUESTION= #{question}, ANSWER= #{answer}, DORMANT_ID= #{dormant_id}
+WHERE TEAM_ID= #{team_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyTeamInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM TEAM WHERE TEAM_ID= #{team_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속팀 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT BELONGED_TEAM_CODE
+	FROM BELONGED_TEAM
+		WHERE MEMBER_ID = #{member_id} AND TEAM_ID = #{team_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectBelongedTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE BELONGED_TEAM SET BELONGED_TEAM_CODE = #{belonged_team_code}
+	WHERE MEMBER_ID = #{member_id} AND TEAM_ID = #{team_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyBolongedTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ADMIN_ID
+	FROM STADIUM_ADMIN
+		WHERE ADMIN_ID = #{admin_id} AND ADMIN_PW = #{admin_pw}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 비밀번호 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE STADIUM_ADMIN
+SET ADMIN_PW= #{admin_pw}
+WHERE ADMIN_ID= #{admin_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyAdminPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 채팅방 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO ADMIN_CHATTING(CHAT_ID, CHATTER1, CHATTER2, DELFLAG)
+VALUES(ADMIN_CHAT_SEQ.NEXTVAL, #{admin_id}, #{member_id}, 'N');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAdminChatting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자와 사용자 간 메시지 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO ADMIN_MESSAGE(CHAT_ID, MSG_CHAT_ID, MESSAGE_CONTENT, MESSAGE_DATE, SENDER)
+VALUES((SELECT CHAT_ID FROM ADMIN_CHATTING WHERE CHATTER1 = #{admin_id} AND CHATTER2 =#{member_id})
+,ADMIN_MSG_SEQ.NEXTVAL, #{content}, SYSDATE, #{session_id});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendAdminMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방이 생성되어있는지 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM ADMIN_CHATTING WHERE CHATTER1 = #{admin_id} AND CHATTER2 =#{member_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkChatting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방을 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT MESSAGE_CONTENT, MESSAGE_DATE
+FROM ADMIN_MESSAGE
+WHERE CHAT_ID = (SELECT CHAT_ID
+        FROM ADMIN_CHATTING
+        WHERE (#{member_id}) IN (CHATTER1, CHATTER2));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectChatting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,8 +1578,38 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,8 +1662,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1407,8 +2019,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,8 +2157,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,15 +2319,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1610,6 +2343,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1643,12 +2391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,27 +2430,154 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="3" xr:uid="{B0AD9DF6-EB55-4549-A727-725E39F54F8C}"/>
+    <cellStyle name="표준 2 2" xfId="4" xr:uid="{DAB53387-27D9-4DB2-B0A1-D8D5344862CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2044,11 +2913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM157"/>
+  <dimension ref="A1:BM160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2063,73 +2932,73 @@
   <sheetData>
     <row r="1" spans="2:51" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:51" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="38"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="66">
         <v>2019.11</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="63">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="66">
         <v>2019.12</v>
       </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="65"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="68"/>
     </row>
     <row r="3" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B3" s="67"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="39"/>
       <c r="H3" s="4" t="s">
         <v>3</v>
@@ -2265,11 +3134,11 @@
       </c>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B4" s="67"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="39"/>
       <c r="H4" s="4" t="s">
         <v>4</v>
@@ -2319,11 +3188,11 @@
       <c r="AY4" s="14"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B5" s="67"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="39"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
@@ -3374,7 +4243,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="93"/>
+      <c r="Y24" s="63"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="6"/>
@@ -3428,7 +4297,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="93"/>
+      <c r="Y25" s="63"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="6"/>
@@ -8849,7 +9718,7 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
@@ -8904,7 +9773,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>4</v>
@@ -8954,58 +9823,58 @@
       <c r="AY125" s="6"/>
     </row>
     <row r="126" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="19"/>
-      <c r="W126" s="19"/>
-      <c r="X126" s="19"/>
-      <c r="Y126" s="19"/>
-      <c r="Z126" s="19"/>
-      <c r="AA126" s="19"/>
-      <c r="AB126" s="22"/>
-      <c r="AC126" s="21"/>
-      <c r="AD126" s="19"/>
-      <c r="AE126" s="19"/>
-      <c r="AF126" s="19"/>
-      <c r="AG126" s="19"/>
-      <c r="AH126" s="19"/>
-      <c r="AI126" s="19"/>
-      <c r="AJ126" s="19"/>
-      <c r="AK126" s="19"/>
-      <c r="AL126" s="19"/>
-      <c r="AM126" s="19"/>
-      <c r="AN126" s="19"/>
-      <c r="AO126" s="19"/>
-      <c r="AP126" s="19"/>
-      <c r="AQ126" s="19"/>
-      <c r="AR126" s="19"/>
-      <c r="AS126" s="19"/>
-      <c r="AT126" s="19"/>
-      <c r="AU126" s="19"/>
-      <c r="AV126" s="19"/>
-      <c r="AW126" s="19"/>
-      <c r="AX126" s="19"/>
-      <c r="AY126" s="22"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H126" s="4"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="6"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
+      <c r="AK126" s="1"/>
+      <c r="AL126" s="1"/>
+      <c r="AM126" s="1"/>
+      <c r="AN126" s="1"/>
+      <c r="AO126" s="1"/>
+      <c r="AP126" s="1"/>
+      <c r="AQ126" s="1"/>
+      <c r="AR126" s="1"/>
+      <c r="AS126" s="1"/>
+      <c r="AT126" s="1"/>
+      <c r="AU126" s="1"/>
+      <c r="AV126" s="1"/>
+      <c r="AW126" s="1"/>
+      <c r="AX126" s="1"/>
+      <c r="AY126" s="6"/>
     </row>
     <row r="127" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B127" s="1"/>
@@ -9014,11 +9883,9 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H127" s="4"/>
       <c r="I127" s="5"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -9070,7 +9937,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="5"/>
@@ -9118,58 +9985,58 @@
       <c r="AY128" s="6"/>
     </row>
     <row r="129" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H129" s="4"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-      <c r="W129" s="1"/>
-      <c r="X129" s="1"/>
-      <c r="Y129" s="1"/>
-      <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
-      <c r="AB129" s="6"/>
-      <c r="AC129" s="5"/>
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="1"/>
-      <c r="AF129" s="1"/>
-      <c r="AG129" s="1"/>
-      <c r="AH129" s="1"/>
-      <c r="AI129" s="1"/>
-      <c r="AJ129" s="1"/>
-      <c r="AK129" s="1"/>
-      <c r="AL129" s="1"/>
-      <c r="AM129" s="1"/>
-      <c r="AN129" s="1"/>
-      <c r="AO129" s="1"/>
-      <c r="AP129" s="1"/>
-      <c r="AQ129" s="1"/>
-      <c r="AR129" s="1"/>
-      <c r="AS129" s="1"/>
-      <c r="AT129" s="1"/>
-      <c r="AU129" s="1"/>
-      <c r="AV129" s="1"/>
-      <c r="AW129" s="1"/>
-      <c r="AX129" s="1"/>
-      <c r="AY129" s="6"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="19"/>
+      <c r="V129" s="19"/>
+      <c r="W129" s="19"/>
+      <c r="X129" s="19"/>
+      <c r="Y129" s="19"/>
+      <c r="Z129" s="19"/>
+      <c r="AA129" s="19"/>
+      <c r="AB129" s="22"/>
+      <c r="AC129" s="21"/>
+      <c r="AD129" s="19"/>
+      <c r="AE129" s="19"/>
+      <c r="AF129" s="19"/>
+      <c r="AG129" s="19"/>
+      <c r="AH129" s="19"/>
+      <c r="AI129" s="19"/>
+      <c r="AJ129" s="19"/>
+      <c r="AK129" s="19"/>
+      <c r="AL129" s="19"/>
+      <c r="AM129" s="19"/>
+      <c r="AN129" s="19"/>
+      <c r="AO129" s="19"/>
+      <c r="AP129" s="19"/>
+      <c r="AQ129" s="19"/>
+      <c r="AR129" s="19"/>
+      <c r="AS129" s="19"/>
+      <c r="AT129" s="19"/>
+      <c r="AU129" s="19"/>
+      <c r="AV129" s="19"/>
+      <c r="AW129" s="19"/>
+      <c r="AX129" s="19"/>
+      <c r="AY129" s="22"/>
     </row>
     <row r="130" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B130" s="1"/>
@@ -9178,9 +10045,11 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H130" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="I130" s="5"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -9226,222 +10095,222 @@
       <c r="AY130" s="6"/>
     </row>
     <row r="131" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="21"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
-      <c r="O131" s="19"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="19"/>
-      <c r="R131" s="19"/>
-      <c r="S131" s="19"/>
-      <c r="T131" s="19"/>
-      <c r="U131" s="19"/>
-      <c r="V131" s="19"/>
-      <c r="W131" s="19"/>
-      <c r="X131" s="19"/>
-      <c r="Y131" s="19"/>
-      <c r="Z131" s="19"/>
-      <c r="AA131" s="19"/>
-      <c r="AB131" s="22"/>
-      <c r="AC131" s="21"/>
-      <c r="AD131" s="19"/>
-      <c r="AE131" s="19"/>
-      <c r="AF131" s="19"/>
-      <c r="AG131" s="19"/>
-      <c r="AH131" s="19"/>
-      <c r="AI131" s="19"/>
-      <c r="AJ131" s="19"/>
-      <c r="AK131" s="19"/>
-      <c r="AL131" s="19"/>
-      <c r="AM131" s="19"/>
-      <c r="AN131" s="19"/>
-      <c r="AO131" s="19"/>
-      <c r="AP131" s="19"/>
-      <c r="AQ131" s="19"/>
-      <c r="AR131" s="19"/>
-      <c r="AS131" s="19"/>
-      <c r="AT131" s="19"/>
-      <c r="AU131" s="19"/>
-      <c r="AV131" s="19"/>
-      <c r="AW131" s="19"/>
-      <c r="AX131" s="19"/>
-      <c r="AY131" s="22"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H131" s="4"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1"/>
+      <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="1"/>
+      <c r="AO131" s="1"/>
+      <c r="AP131" s="1"/>
+      <c r="AQ131" s="1"/>
+      <c r="AR131" s="1"/>
+      <c r="AS131" s="1"/>
+      <c r="AT131" s="1"/>
+      <c r="AU131" s="1"/>
+      <c r="AV131" s="1"/>
+      <c r="AW131" s="1"/>
+      <c r="AX131" s="1"/>
+      <c r="AY131" s="6"/>
     </row>
     <row r="132" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H132" s="4" t="s">
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="23"/>
+      <c r="T132" s="23"/>
+      <c r="U132" s="23"/>
+      <c r="V132" s="23"/>
+      <c r="W132" s="23"/>
+      <c r="X132" s="23"/>
+      <c r="Y132" s="23"/>
+      <c r="Z132" s="23"/>
+      <c r="AA132" s="23"/>
+      <c r="AB132" s="26"/>
+      <c r="AC132" s="25"/>
+      <c r="AD132" s="23"/>
+      <c r="AE132" s="23"/>
+      <c r="AF132" s="23"/>
+      <c r="AG132" s="23"/>
+      <c r="AH132" s="23"/>
+      <c r="AI132" s="23"/>
+      <c r="AJ132" s="23"/>
+      <c r="AK132" s="23"/>
+      <c r="AL132" s="23"/>
+      <c r="AM132" s="23"/>
+      <c r="AN132" s="23"/>
+      <c r="AO132" s="23"/>
+      <c r="AP132" s="23"/>
+      <c r="AQ132" s="23"/>
+      <c r="AR132" s="23"/>
+      <c r="AS132" s="23"/>
+      <c r="AT132" s="23"/>
+      <c r="AU132" s="23"/>
+      <c r="AV132" s="23"/>
+      <c r="AW132" s="23"/>
+      <c r="AX132" s="23"/>
+      <c r="AY132" s="26"/>
+    </row>
+    <row r="133" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="22"/>
+      <c r="AC133" s="21"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19"/>
+      <c r="AM133" s="19"/>
+      <c r="AN133" s="19"/>
+      <c r="AO133" s="19"/>
+      <c r="AP133" s="19"/>
+      <c r="AQ133" s="19"/>
+      <c r="AR133" s="19"/>
+      <c r="AS133" s="19"/>
+      <c r="AT133" s="19"/>
+      <c r="AU133" s="19"/>
+      <c r="AV133" s="19"/>
+      <c r="AW133" s="19"/>
+      <c r="AX133" s="19"/>
+      <c r="AY133" s="22"/>
+    </row>
+    <row r="134" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I132" s="5"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="6"/>
-      <c r="AC132" s="5"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
-      <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
-      <c r="AL132" s="1"/>
-      <c r="AM132" s="1"/>
-      <c r="AN132" s="1"/>
-      <c r="AO132" s="1"/>
-      <c r="AP132" s="1"/>
-      <c r="AQ132" s="1"/>
-      <c r="AR132" s="1"/>
-      <c r="AS132" s="1"/>
-      <c r="AT132" s="1"/>
-      <c r="AU132" s="1"/>
-      <c r="AV132" s="1"/>
-      <c r="AW132" s="1"/>
-      <c r="AX132" s="1"/>
-      <c r="AY132" s="6"/>
-    </row>
-    <row r="133" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H133" s="4"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="6"/>
-      <c r="AC133" s="5"/>
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="1"/>
-      <c r="AF133" s="1"/>
-      <c r="AG133" s="1"/>
-      <c r="AH133" s="1"/>
-      <c r="AI133" s="1"/>
-      <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
-      <c r="AL133" s="1"/>
-      <c r="AM133" s="1"/>
-      <c r="AN133" s="1"/>
-      <c r="AO133" s="1"/>
-      <c r="AP133" s="1"/>
-      <c r="AQ133" s="1"/>
-      <c r="AR133" s="1"/>
-      <c r="AS133" s="1"/>
-      <c r="AT133" s="1"/>
-      <c r="AU133" s="1"/>
-      <c r="AV133" s="1"/>
-      <c r="AW133" s="1"/>
-      <c r="AX133" s="1"/>
-      <c r="AY133" s="6"/>
-    </row>
-    <row r="134" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23"/>
-      <c r="M134" s="23"/>
-      <c r="N134" s="23"/>
-      <c r="O134" s="23"/>
-      <c r="P134" s="23"/>
-      <c r="Q134" s="23"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="23"/>
-      <c r="T134" s="23"/>
-      <c r="U134" s="23"/>
-      <c r="V134" s="23"/>
-      <c r="W134" s="23"/>
-      <c r="X134" s="23"/>
-      <c r="Y134" s="23"/>
-      <c r="Z134" s="23"/>
-      <c r="AA134" s="23"/>
-      <c r="AB134" s="26"/>
-      <c r="AC134" s="25"/>
-      <c r="AD134" s="23"/>
-      <c r="AE134" s="23"/>
-      <c r="AF134" s="23"/>
-      <c r="AG134" s="23"/>
-      <c r="AH134" s="23"/>
-      <c r="AI134" s="23"/>
-      <c r="AJ134" s="23"/>
-      <c r="AK134" s="23"/>
-      <c r="AL134" s="23"/>
-      <c r="AM134" s="23"/>
-      <c r="AN134" s="23"/>
-      <c r="AO134" s="23"/>
-      <c r="AP134" s="23"/>
-      <c r="AQ134" s="23"/>
-      <c r="AR134" s="23"/>
-      <c r="AS134" s="23"/>
-      <c r="AT134" s="23"/>
-      <c r="AU134" s="23"/>
-      <c r="AV134" s="23"/>
-      <c r="AW134" s="23"/>
-      <c r="AX134" s="23"/>
-      <c r="AY134" s="26"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="6"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
+      <c r="AV134" s="1"/>
+      <c r="AW134" s="1"/>
+      <c r="AX134" s="1"/>
+      <c r="AY134" s="6"/>
     </row>
     <row r="135" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B135" s="19"/>
@@ -9449,7 +10318,7 @@
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
       <c r="F135" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -9504,7 +10373,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>4</v>
@@ -9554,114 +10423,112 @@
       <c r="AY136" s="6"/>
     </row>
     <row r="137" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="19"/>
-      <c r="W137" s="19"/>
-      <c r="X137" s="19"/>
-      <c r="Y137" s="19"/>
-      <c r="Z137" s="19"/>
-      <c r="AA137" s="19"/>
-      <c r="AB137" s="22"/>
-      <c r="AC137" s="21"/>
-      <c r="AD137" s="19"/>
-      <c r="AE137" s="19"/>
-      <c r="AF137" s="19"/>
-      <c r="AG137" s="19"/>
-      <c r="AH137" s="19"/>
-      <c r="AI137" s="19"/>
-      <c r="AJ137" s="19"/>
-      <c r="AK137" s="19"/>
-      <c r="AL137" s="19"/>
-      <c r="AM137" s="19"/>
-      <c r="AN137" s="19"/>
-      <c r="AO137" s="19"/>
-      <c r="AP137" s="19"/>
-      <c r="AQ137" s="19"/>
-      <c r="AR137" s="19"/>
-      <c r="AS137" s="19"/>
-      <c r="AT137" s="19"/>
-      <c r="AU137" s="19"/>
-      <c r="AV137" s="19"/>
-      <c r="AW137" s="19"/>
-      <c r="AX137" s="19"/>
-      <c r="AY137" s="22"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H137" s="4"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="6"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1"/>
+      <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
+      <c r="AN137" s="1"/>
+      <c r="AO137" s="1"/>
+      <c r="AP137" s="1"/>
+      <c r="AQ137" s="1"/>
+      <c r="AR137" s="1"/>
+      <c r="AS137" s="1"/>
+      <c r="AT137" s="1"/>
+      <c r="AU137" s="1"/>
+      <c r="AV137" s="1"/>
+      <c r="AW137" s="1"/>
+      <c r="AX137" s="1"/>
+      <c r="AY137" s="6"/>
     </row>
     <row r="138" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" s="5"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-      <c r="AB138" s="6"/>
-      <c r="AC138" s="5"/>
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="1"/>
-      <c r="AG138" s="1"/>
-      <c r="AH138" s="1"/>
-      <c r="AI138" s="1"/>
-      <c r="AJ138" s="1"/>
-      <c r="AK138" s="1"/>
-      <c r="AL138" s="1"/>
-      <c r="AM138" s="1"/>
-      <c r="AN138" s="1"/>
-      <c r="AO138" s="1"/>
-      <c r="AP138" s="1"/>
-      <c r="AQ138" s="1"/>
-      <c r="AR138" s="1"/>
-      <c r="AS138" s="1"/>
-      <c r="AT138" s="1"/>
-      <c r="AU138" s="1"/>
-      <c r="AV138" s="1"/>
-      <c r="AW138" s="1"/>
-      <c r="AX138" s="1"/>
-      <c r="AY138" s="6"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="19"/>
+      <c r="V138" s="19"/>
+      <c r="W138" s="19"/>
+      <c r="X138" s="19"/>
+      <c r="Y138" s="19"/>
+      <c r="Z138" s="19"/>
+      <c r="AA138" s="19"/>
+      <c r="AB138" s="22"/>
+      <c r="AC138" s="21"/>
+      <c r="AD138" s="19"/>
+      <c r="AE138" s="19"/>
+      <c r="AF138" s="19"/>
+      <c r="AG138" s="19"/>
+      <c r="AH138" s="19"/>
+      <c r="AI138" s="19"/>
+      <c r="AJ138" s="19"/>
+      <c r="AK138" s="19"/>
+      <c r="AL138" s="19"/>
+      <c r="AM138" s="19"/>
+      <c r="AN138" s="19"/>
+      <c r="AO138" s="19"/>
+      <c r="AP138" s="19"/>
+      <c r="AQ138" s="19"/>
+      <c r="AR138" s="19"/>
+      <c r="AS138" s="19"/>
+      <c r="AT138" s="19"/>
+      <c r="AU138" s="19"/>
+      <c r="AV138" s="19"/>
+      <c r="AW138" s="19"/>
+      <c r="AX138" s="19"/>
+      <c r="AY138" s="22"/>
     </row>
     <row r="139" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B139" s="1"/>
@@ -9670,9 +10537,11 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H139" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="I139" s="5"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -9718,222 +10587,222 @@
       <c r="AY139" s="6"/>
     </row>
     <row r="140" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B140" s="23"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24" t="s">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H140" s="4"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="6"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+      <c r="AH140" s="1"/>
+      <c r="AI140" s="1"/>
+      <c r="AJ140" s="1"/>
+      <c r="AK140" s="1"/>
+      <c r="AL140" s="1"/>
+      <c r="AM140" s="1"/>
+      <c r="AN140" s="1"/>
+      <c r="AO140" s="1"/>
+      <c r="AP140" s="1"/>
+      <c r="AQ140" s="1"/>
+      <c r="AR140" s="1"/>
+      <c r="AS140" s="1"/>
+      <c r="AT140" s="1"/>
+      <c r="AU140" s="1"/>
+      <c r="AV140" s="1"/>
+      <c r="AW140" s="1"/>
+      <c r="AX140" s="1"/>
+      <c r="AY140" s="6"/>
+    </row>
+    <row r="141" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="23"/>
-      <c r="M140" s="23"/>
-      <c r="N140" s="23"/>
-      <c r="O140" s="23"/>
-      <c r="P140" s="23"/>
-      <c r="Q140" s="23"/>
-      <c r="R140" s="23"/>
-      <c r="S140" s="23"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="23"/>
-      <c r="V140" s="23"/>
-      <c r="W140" s="23"/>
-      <c r="X140" s="23"/>
-      <c r="Y140" s="23"/>
-      <c r="Z140" s="23"/>
-      <c r="AA140" s="23"/>
-      <c r="AB140" s="26"/>
-      <c r="AC140" s="25"/>
-      <c r="AD140" s="23"/>
-      <c r="AE140" s="23"/>
-      <c r="AF140" s="23"/>
-      <c r="AG140" s="23"/>
-      <c r="AH140" s="23"/>
-      <c r="AI140" s="23"/>
-      <c r="AJ140" s="23"/>
-      <c r="AK140" s="23"/>
-      <c r="AL140" s="23"/>
-      <c r="AM140" s="23"/>
-      <c r="AN140" s="23"/>
-      <c r="AO140" s="23"/>
-      <c r="AP140" s="23"/>
-      <c r="AQ140" s="23"/>
-      <c r="AR140" s="23"/>
-      <c r="AS140" s="23"/>
-      <c r="AT140" s="23"/>
-      <c r="AU140" s="23"/>
-      <c r="AV140" s="23"/>
-      <c r="AW140" s="23"/>
-      <c r="AX140" s="23"/>
-      <c r="AY140" s="26"/>
-    </row>
-    <row r="141" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20" t="s">
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="23"/>
+      <c r="N141" s="23"/>
+      <c r="O141" s="23"/>
+      <c r="P141" s="23"/>
+      <c r="Q141" s="23"/>
+      <c r="R141" s="23"/>
+      <c r="S141" s="23"/>
+      <c r="T141" s="23"/>
+      <c r="U141" s="23"/>
+      <c r="V141" s="23"/>
+      <c r="W141" s="23"/>
+      <c r="X141" s="23"/>
+      <c r="Y141" s="23"/>
+      <c r="Z141" s="23"/>
+      <c r="AA141" s="23"/>
+      <c r="AB141" s="26"/>
+      <c r="AC141" s="25"/>
+      <c r="AD141" s="23"/>
+      <c r="AE141" s="23"/>
+      <c r="AF141" s="23"/>
+      <c r="AG141" s="23"/>
+      <c r="AH141" s="23"/>
+      <c r="AI141" s="23"/>
+      <c r="AJ141" s="23"/>
+      <c r="AK141" s="23"/>
+      <c r="AL141" s="23"/>
+      <c r="AM141" s="23"/>
+      <c r="AN141" s="23"/>
+      <c r="AO141" s="23"/>
+      <c r="AP141" s="23"/>
+      <c r="AQ141" s="23"/>
+      <c r="AR141" s="23"/>
+      <c r="AS141" s="23"/>
+      <c r="AT141" s="23"/>
+      <c r="AU141" s="23"/>
+      <c r="AV141" s="23"/>
+      <c r="AW141" s="23"/>
+      <c r="AX141" s="23"/>
+      <c r="AY141" s="26"/>
+    </row>
+    <row r="142" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="19"/>
-      <c r="W141" s="19"/>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="19"/>
-      <c r="Z141" s="19"/>
-      <c r="AA141" s="19"/>
-      <c r="AB141" s="22"/>
-      <c r="AC141" s="21"/>
-      <c r="AD141" s="19"/>
-      <c r="AE141" s="19"/>
-      <c r="AF141" s="19"/>
-      <c r="AG141" s="19"/>
-      <c r="AH141" s="19"/>
-      <c r="AI141" s="19"/>
-      <c r="AJ141" s="19"/>
-      <c r="AK141" s="19"/>
-      <c r="AL141" s="19"/>
-      <c r="AM141" s="19"/>
-      <c r="AN141" s="19"/>
-      <c r="AO141" s="19"/>
-      <c r="AP141" s="19"/>
-      <c r="AQ141" s="19"/>
-      <c r="AR141" s="19"/>
-      <c r="AS141" s="19"/>
-      <c r="AT141" s="19"/>
-      <c r="AU141" s="19"/>
-      <c r="AV141" s="19"/>
-      <c r="AW141" s="19"/>
-      <c r="AX141" s="19"/>
-      <c r="AY141" s="22"/>
-    </row>
-    <row r="142" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4" t="s">
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="19"/>
+      <c r="V142" s="19"/>
+      <c r="W142" s="19"/>
+      <c r="X142" s="19"/>
+      <c r="Y142" s="19"/>
+      <c r="Z142" s="19"/>
+      <c r="AA142" s="19"/>
+      <c r="AB142" s="22"/>
+      <c r="AC142" s="21"/>
+      <c r="AD142" s="19"/>
+      <c r="AE142" s="19"/>
+      <c r="AF142" s="19"/>
+      <c r="AG142" s="19"/>
+      <c r="AH142" s="19"/>
+      <c r="AI142" s="19"/>
+      <c r="AJ142" s="19"/>
+      <c r="AK142" s="19"/>
+      <c r="AL142" s="19"/>
+      <c r="AM142" s="19"/>
+      <c r="AN142" s="19"/>
+      <c r="AO142" s="19"/>
+      <c r="AP142" s="19"/>
+      <c r="AQ142" s="19"/>
+      <c r="AR142" s="19"/>
+      <c r="AS142" s="19"/>
+      <c r="AT142" s="19"/>
+      <c r="AU142" s="19"/>
+      <c r="AV142" s="19"/>
+      <c r="AW142" s="19"/>
+      <c r="AX142" s="19"/>
+      <c r="AY142" s="22"/>
+    </row>
+    <row r="143" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H143" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="V142" s="1"/>
-      <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
-      <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="6"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="1"/>
-      <c r="AE142" s="1"/>
-      <c r="AF142" s="1"/>
-      <c r="AG142" s="1"/>
-      <c r="AH142" s="1"/>
-      <c r="AI142" s="1"/>
-      <c r="AJ142" s="1"/>
-      <c r="AK142" s="1"/>
-      <c r="AL142" s="1"/>
-      <c r="AM142" s="1"/>
-      <c r="AN142" s="1"/>
-      <c r="AO142" s="1"/>
-      <c r="AP142" s="1"/>
-      <c r="AQ142" s="1"/>
-      <c r="AR142" s="1"/>
-      <c r="AS142" s="1"/>
-      <c r="AT142" s="1"/>
-      <c r="AU142" s="1"/>
-      <c r="AV142" s="1"/>
-      <c r="AW142" s="1"/>
-      <c r="AX142" s="1"/>
-      <c r="AY142" s="6"/>
-    </row>
-    <row r="143" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="23"/>
-      <c r="M143" s="23"/>
-      <c r="N143" s="23"/>
-      <c r="O143" s="23"/>
-      <c r="P143" s="23"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="23"/>
-      <c r="U143" s="23"/>
-      <c r="V143" s="23"/>
-      <c r="W143" s="23"/>
-      <c r="X143" s="23"/>
-      <c r="Y143" s="23"/>
-      <c r="Z143" s="23"/>
-      <c r="AA143" s="23"/>
-      <c r="AB143" s="26"/>
-      <c r="AC143" s="25"/>
-      <c r="AD143" s="23"/>
-      <c r="AE143" s="23"/>
-      <c r="AF143" s="23"/>
-      <c r="AG143" s="23"/>
-      <c r="AH143" s="23"/>
-      <c r="AI143" s="23"/>
-      <c r="AJ143" s="23"/>
-      <c r="AK143" s="23"/>
-      <c r="AL143" s="23"/>
-      <c r="AM143" s="23"/>
-      <c r="AN143" s="23"/>
-      <c r="AO143" s="23"/>
-      <c r="AP143" s="23"/>
-      <c r="AQ143" s="23"/>
-      <c r="AR143" s="23"/>
-      <c r="AS143" s="23"/>
-      <c r="AT143" s="23"/>
-      <c r="AU143" s="23"/>
-      <c r="AV143" s="23"/>
-      <c r="AW143" s="23"/>
-      <c r="AX143" s="23"/>
-      <c r="AY143" s="26"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="6"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+      <c r="AJ143" s="1"/>
+      <c r="AK143" s="1"/>
+      <c r="AL143" s="1"/>
+      <c r="AM143" s="1"/>
+      <c r="AN143" s="1"/>
+      <c r="AO143" s="1"/>
+      <c r="AP143" s="1"/>
+      <c r="AQ143" s="1"/>
+      <c r="AR143" s="1"/>
+      <c r="AS143" s="1"/>
+      <c r="AT143" s="1"/>
+      <c r="AU143" s="1"/>
+      <c r="AV143" s="1"/>
+      <c r="AW143" s="1"/>
+      <c r="AX143" s="1"/>
+      <c r="AY143" s="6"/>
     </row>
     <row r="144" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B144" s="19"/>
@@ -9941,7 +10810,7 @@
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
       <c r="F144" s="20" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
@@ -9996,7 +10865,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>4</v>
@@ -10046,179 +10915,179 @@
       <c r="AY145" s="6"/>
     </row>
     <row r="146" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H146" s="4"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="6"/>
-      <c r="AC146" s="5"/>
-      <c r="AD146" s="1"/>
-      <c r="AE146" s="1"/>
-      <c r="AF146" s="1"/>
-      <c r="AG146" s="1"/>
-      <c r="AH146" s="1"/>
-      <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
-      <c r="AK146" s="1"/>
-      <c r="AL146" s="1"/>
-      <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
-      <c r="AP146" s="1"/>
-      <c r="AQ146" s="1"/>
-      <c r="AR146" s="1"/>
-      <c r="AS146" s="1"/>
-      <c r="AT146" s="1"/>
-      <c r="AU146" s="1"/>
-      <c r="AV146" s="1"/>
-      <c r="AW146" s="1"/>
-      <c r="AX146" s="1"/>
-      <c r="AY146" s="6"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="23"/>
+      <c r="O146" s="23"/>
+      <c r="P146" s="23"/>
+      <c r="Q146" s="23"/>
+      <c r="R146" s="23"/>
+      <c r="S146" s="23"/>
+      <c r="T146" s="23"/>
+      <c r="U146" s="23"/>
+      <c r="V146" s="23"/>
+      <c r="W146" s="23"/>
+      <c r="X146" s="23"/>
+      <c r="Y146" s="23"/>
+      <c r="Z146" s="23"/>
+      <c r="AA146" s="23"/>
+      <c r="AB146" s="26"/>
+      <c r="AC146" s="25"/>
+      <c r="AD146" s="23"/>
+      <c r="AE146" s="23"/>
+      <c r="AF146" s="23"/>
+      <c r="AG146" s="23"/>
+      <c r="AH146" s="23"/>
+      <c r="AI146" s="23"/>
+      <c r="AJ146" s="23"/>
+      <c r="AK146" s="23"/>
+      <c r="AL146" s="23"/>
+      <c r="AM146" s="23"/>
+      <c r="AN146" s="23"/>
+      <c r="AO146" s="23"/>
+      <c r="AP146" s="23"/>
+      <c r="AQ146" s="23"/>
+      <c r="AR146" s="23"/>
+      <c r="AS146" s="23"/>
+      <c r="AT146" s="23"/>
+      <c r="AU146" s="23"/>
+      <c r="AV146" s="23"/>
+      <c r="AW146" s="23"/>
+      <c r="AX146" s="23"/>
+      <c r="AY146" s="26"/>
     </row>
     <row r="147" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
-      <c r="L147" s="31"/>
-      <c r="M147" s="31"/>
-      <c r="N147" s="31"/>
-      <c r="O147" s="31"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="31"/>
-      <c r="R147" s="31"/>
-      <c r="S147" s="31"/>
-      <c r="T147" s="31"/>
-      <c r="U147" s="31"/>
-      <c r="V147" s="31"/>
-      <c r="W147" s="31"/>
-      <c r="X147" s="31"/>
-      <c r="Y147" s="31"/>
-      <c r="Z147" s="31"/>
-      <c r="AA147" s="31"/>
-      <c r="AB147" s="34"/>
-      <c r="AC147" s="33"/>
-      <c r="AD147" s="31"/>
-      <c r="AE147" s="31"/>
-      <c r="AF147" s="31"/>
-      <c r="AG147" s="31"/>
-      <c r="AH147" s="31"/>
-      <c r="AI147" s="31"/>
-      <c r="AJ147" s="31"/>
-      <c r="AK147" s="31"/>
-      <c r="AL147" s="31"/>
-      <c r="AM147" s="31"/>
-      <c r="AN147" s="31"/>
-      <c r="AO147" s="31"/>
-      <c r="AP147" s="31"/>
-      <c r="AQ147" s="31"/>
-      <c r="AR147" s="31"/>
-      <c r="AS147" s="31"/>
-      <c r="AT147" s="31"/>
-      <c r="AU147" s="31"/>
-      <c r="AV147" s="31"/>
-      <c r="AW147" s="31"/>
-      <c r="AX147" s="31"/>
-      <c r="AY147" s="34"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="22"/>
+      <c r="AC147" s="21"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="19"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
+      <c r="AJ147" s="19"/>
+      <c r="AK147" s="19"/>
+      <c r="AL147" s="19"/>
+      <c r="AM147" s="19"/>
+      <c r="AN147" s="19"/>
+      <c r="AO147" s="19"/>
+      <c r="AP147" s="19"/>
+      <c r="AQ147" s="19"/>
+      <c r="AR147" s="19"/>
+      <c r="AS147" s="19"/>
+      <c r="AT147" s="19"/>
+      <c r="AU147" s="19"/>
+      <c r="AV147" s="19"/>
+      <c r="AW147" s="19"/>
+      <c r="AX147" s="19"/>
+      <c r="AY147" s="22"/>
     </row>
     <row r="148" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="23"/>
-      <c r="M148" s="23"/>
-      <c r="N148" s="23"/>
-      <c r="O148" s="23"/>
-      <c r="P148" s="23"/>
-      <c r="Q148" s="23"/>
-      <c r="R148" s="23"/>
-      <c r="S148" s="23"/>
-      <c r="T148" s="23"/>
-      <c r="U148" s="23"/>
-      <c r="V148" s="23"/>
-      <c r="W148" s="23"/>
-      <c r="X148" s="23"/>
-      <c r="Y148" s="23"/>
-      <c r="Z148" s="23"/>
-      <c r="AA148" s="23"/>
-      <c r="AB148" s="26"/>
-      <c r="AC148" s="25"/>
-      <c r="AD148" s="23"/>
-      <c r="AE148" s="23"/>
-      <c r="AF148" s="23"/>
-      <c r="AG148" s="23"/>
-      <c r="AH148" s="23"/>
-      <c r="AI148" s="23"/>
-      <c r="AJ148" s="23"/>
-      <c r="AK148" s="23"/>
-      <c r="AL148" s="23"/>
-      <c r="AM148" s="23"/>
-      <c r="AN148" s="23"/>
-      <c r="AO148" s="23"/>
-      <c r="AP148" s="23"/>
-      <c r="AQ148" s="23"/>
-      <c r="AR148" s="23"/>
-      <c r="AS148" s="23"/>
-      <c r="AT148" s="23"/>
-      <c r="AU148" s="23"/>
-      <c r="AV148" s="23"/>
-      <c r="AW148" s="23"/>
-      <c r="AX148" s="23"/>
-      <c r="AY148" s="26"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
+      <c r="AB148" s="6"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="1"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+      <c r="AG148" s="1"/>
+      <c r="AH148" s="1"/>
+      <c r="AI148" s="1"/>
+      <c r="AJ148" s="1"/>
+      <c r="AK148" s="1"/>
+      <c r="AL148" s="1"/>
+      <c r="AM148" s="1"/>
+      <c r="AN148" s="1"/>
+      <c r="AO148" s="1"/>
+      <c r="AP148" s="1"/>
+      <c r="AQ148" s="1"/>
+      <c r="AR148" s="1"/>
+      <c r="AS148" s="1"/>
+      <c r="AT148" s="1"/>
+      <c r="AU148" s="1"/>
+      <c r="AV148" s="1"/>
+      <c r="AW148" s="1"/>
+      <c r="AX148" s="1"/>
+      <c r="AY148" s="6"/>
     </row>
     <row r="149" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="G149" s="75"/>
-      <c r="H149" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H149" s="4"/>
       <c r="I149" s="5"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -10264,67 +11133,65 @@
       <c r="AY149" s="6"/>
     </row>
     <row r="150" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="G150" s="75"/>
-      <c r="H150" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I150" s="5"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
-      <c r="AA150" s="1"/>
-      <c r="AB150" s="6"/>
-      <c r="AC150" s="5"/>
-      <c r="AD150" s="1"/>
-      <c r="AE150" s="1"/>
-      <c r="AF150" s="1"/>
-      <c r="AG150" s="1"/>
-      <c r="AH150" s="1"/>
-      <c r="AI150" s="1"/>
-      <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
-      <c r="AL150" s="1"/>
-      <c r="AM150" s="1"/>
-      <c r="AN150" s="1"/>
-      <c r="AO150" s="1"/>
-      <c r="AP150" s="1"/>
-      <c r="AQ150" s="1"/>
-      <c r="AR150" s="1"/>
-      <c r="AS150" s="1"/>
-      <c r="AT150" s="1"/>
-      <c r="AU150" s="1"/>
-      <c r="AV150" s="1"/>
-      <c r="AW150" s="1"/>
-      <c r="AX150" s="1"/>
-      <c r="AY150" s="6"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
+      <c r="L150" s="31"/>
+      <c r="M150" s="31"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="31"/>
+      <c r="P150" s="31"/>
+      <c r="Q150" s="31"/>
+      <c r="R150" s="31"/>
+      <c r="S150" s="31"/>
+      <c r="T150" s="31"/>
+      <c r="U150" s="31"/>
+      <c r="V150" s="31"/>
+      <c r="W150" s="31"/>
+      <c r="X150" s="31"/>
+      <c r="Y150" s="31"/>
+      <c r="Z150" s="31"/>
+      <c r="AA150" s="31"/>
+      <c r="AB150" s="34"/>
+      <c r="AC150" s="33"/>
+      <c r="AD150" s="31"/>
+      <c r="AE150" s="31"/>
+      <c r="AF150" s="31"/>
+      <c r="AG150" s="31"/>
+      <c r="AH150" s="31"/>
+      <c r="AI150" s="31"/>
+      <c r="AJ150" s="31"/>
+      <c r="AK150" s="31"/>
+      <c r="AL150" s="31"/>
+      <c r="AM150" s="31"/>
+      <c r="AN150" s="31"/>
+      <c r="AO150" s="31"/>
+      <c r="AP150" s="31"/>
+      <c r="AQ150" s="31"/>
+      <c r="AR150" s="31"/>
+      <c r="AS150" s="31"/>
+      <c r="AT150" s="31"/>
+      <c r="AU150" s="31"/>
+      <c r="AV150" s="31"/>
+      <c r="AW150" s="31"/>
+      <c r="AX150" s="31"/>
+      <c r="AY150" s="34"/>
     </row>
     <row r="151" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="24"/>
       <c r="E151" s="24" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F151" s="24"/>
       <c r="G151" s="24"/>
@@ -10378,10 +11245,10 @@
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="G152" s="75"/>
+      <c r="F152" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G152" s="65"/>
       <c r="H152" s="4" t="s">
         <v>102</v>
       </c>
@@ -10430,124 +11297,124 @@
       <c r="AY152" s="6"/>
     </row>
     <row r="153" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="25"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="23"/>
-      <c r="M153" s="23"/>
-      <c r="N153" s="23"/>
-      <c r="O153" s="23"/>
-      <c r="P153" s="23"/>
-      <c r="Q153" s="23"/>
-      <c r="R153" s="23"/>
-      <c r="S153" s="23"/>
-      <c r="T153" s="23"/>
-      <c r="U153" s="23"/>
-      <c r="V153" s="23"/>
-      <c r="W153" s="23"/>
-      <c r="X153" s="23"/>
-      <c r="Y153" s="23"/>
-      <c r="Z153" s="23"/>
-      <c r="AA153" s="23"/>
-      <c r="AB153" s="26"/>
-      <c r="AC153" s="25"/>
-      <c r="AD153" s="23"/>
-      <c r="AE153" s="23"/>
-      <c r="AF153" s="23"/>
-      <c r="AG153" s="23"/>
-      <c r="AH153" s="23"/>
-      <c r="AI153" s="23"/>
-      <c r="AJ153" s="23"/>
-      <c r="AK153" s="23"/>
-      <c r="AL153" s="23"/>
-      <c r="AM153" s="23"/>
-      <c r="AN153" s="23"/>
-      <c r="AO153" s="23"/>
-      <c r="AP153" s="23"/>
-      <c r="AQ153" s="23"/>
-      <c r="AR153" s="23"/>
-      <c r="AS153" s="23"/>
-      <c r="AT153" s="23"/>
-      <c r="AU153" s="23"/>
-      <c r="AV153" s="23"/>
-      <c r="AW153" s="23"/>
-      <c r="AX153" s="23"/>
-      <c r="AY153" s="26"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="G153" s="65"/>
+      <c r="H153" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I153" s="5"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="6"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+      <c r="AG153" s="1"/>
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1"/>
+      <c r="AJ153" s="1"/>
+      <c r="AK153" s="1"/>
+      <c r="AL153" s="1"/>
+      <c r="AM153" s="1"/>
+      <c r="AN153" s="1"/>
+      <c r="AO153" s="1"/>
+      <c r="AP153" s="1"/>
+      <c r="AQ153" s="1"/>
+      <c r="AR153" s="1"/>
+      <c r="AS153" s="1"/>
+      <c r="AT153" s="1"/>
+      <c r="AU153" s="1"/>
+      <c r="AV153" s="1"/>
+      <c r="AW153" s="1"/>
+      <c r="AX153" s="1"/>
+      <c r="AY153" s="6"/>
     </row>
     <row r="154" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="G154" s="75"/>
-      <c r="H154" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I154" s="5"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="V154" s="1"/>
-      <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
-      <c r="Y154" s="1"/>
-      <c r="Z154" s="1"/>
-      <c r="AA154" s="1"/>
-      <c r="AB154" s="6"/>
-      <c r="AC154" s="5"/>
-      <c r="AD154" s="1"/>
-      <c r="AE154" s="1"/>
-      <c r="AF154" s="1"/>
-      <c r="AG154" s="1"/>
-      <c r="AH154" s="1"/>
-      <c r="AI154" s="1"/>
-      <c r="AJ154" s="1"/>
-      <c r="AK154" s="1"/>
-      <c r="AL154" s="1"/>
-      <c r="AM154" s="1"/>
-      <c r="AN154" s="1"/>
-      <c r="AO154" s="1"/>
-      <c r="AP154" s="1"/>
-      <c r="AQ154" s="1"/>
-      <c r="AR154" s="1"/>
-      <c r="AS154" s="1"/>
-      <c r="AT154" s="1"/>
-      <c r="AU154" s="1"/>
-      <c r="AV154" s="1"/>
-      <c r="AW154" s="1"/>
-      <c r="AX154" s="1"/>
-      <c r="AY154" s="6"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="23"/>
+      <c r="O154" s="23"/>
+      <c r="P154" s="23"/>
+      <c r="Q154" s="23"/>
+      <c r="R154" s="23"/>
+      <c r="S154" s="23"/>
+      <c r="T154" s="23"/>
+      <c r="U154" s="23"/>
+      <c r="V154" s="23"/>
+      <c r="W154" s="23"/>
+      <c r="X154" s="23"/>
+      <c r="Y154" s="23"/>
+      <c r="Z154" s="23"/>
+      <c r="AA154" s="23"/>
+      <c r="AB154" s="26"/>
+      <c r="AC154" s="25"/>
+      <c r="AD154" s="23"/>
+      <c r="AE154" s="23"/>
+      <c r="AF154" s="23"/>
+      <c r="AG154" s="23"/>
+      <c r="AH154" s="23"/>
+      <c r="AI154" s="23"/>
+      <c r="AJ154" s="23"/>
+      <c r="AK154" s="23"/>
+      <c r="AL154" s="23"/>
+      <c r="AM154" s="23"/>
+      <c r="AN154" s="23"/>
+      <c r="AO154" s="23"/>
+      <c r="AP154" s="23"/>
+      <c r="AQ154" s="23"/>
+      <c r="AR154" s="23"/>
+      <c r="AS154" s="23"/>
+      <c r="AT154" s="23"/>
+      <c r="AU154" s="23"/>
+      <c r="AV154" s="23"/>
+      <c r="AW154" s="23"/>
+      <c r="AX154" s="23"/>
+      <c r="AY154" s="26"/>
     </row>
     <row r="155" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="G155" s="75"/>
+      <c r="F155" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G155" s="65"/>
       <c r="H155" s="4" t="s">
         <v>102</v>
       </c>
@@ -10600,7 +11467,7 @@
       <c r="C156" s="23"/>
       <c r="D156" s="24"/>
       <c r="E156" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
@@ -10654,10 +11521,10 @@
       <c r="C157" s="1"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="G157" s="75"/>
+      <c r="F157" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G157" s="65"/>
       <c r="H157" s="4" t="s">
         <v>102</v>
       </c>
@@ -10705,18 +11572,184 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="6"/>
     </row>
+    <row r="158" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G158" s="65"/>
+      <c r="H158" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I158" s="5"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
+      <c r="AA158" s="1"/>
+      <c r="AB158" s="6"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+      <c r="AG158" s="1"/>
+      <c r="AH158" s="1"/>
+      <c r="AI158" s="1"/>
+      <c r="AJ158" s="1"/>
+      <c r="AK158" s="1"/>
+      <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
+      <c r="AN158" s="1"/>
+      <c r="AO158" s="1"/>
+      <c r="AP158" s="1"/>
+      <c r="AQ158" s="1"/>
+      <c r="AR158" s="1"/>
+      <c r="AS158" s="1"/>
+      <c r="AT158" s="1"/>
+      <c r="AU158" s="1"/>
+      <c r="AV158" s="1"/>
+      <c r="AW158" s="1"/>
+      <c r="AX158" s="1"/>
+      <c r="AY158" s="6"/>
+    </row>
+    <row r="159" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="23"/>
+      <c r="L159" s="23"/>
+      <c r="M159" s="23"/>
+      <c r="N159" s="23"/>
+      <c r="O159" s="23"/>
+      <c r="P159" s="23"/>
+      <c r="Q159" s="23"/>
+      <c r="R159" s="23"/>
+      <c r="S159" s="23"/>
+      <c r="T159" s="23"/>
+      <c r="U159" s="23"/>
+      <c r="V159" s="23"/>
+      <c r="W159" s="23"/>
+      <c r="X159" s="23"/>
+      <c r="Y159" s="23"/>
+      <c r="Z159" s="23"/>
+      <c r="AA159" s="23"/>
+      <c r="AB159" s="26"/>
+      <c r="AC159" s="25"/>
+      <c r="AD159" s="23"/>
+      <c r="AE159" s="23"/>
+      <c r="AF159" s="23"/>
+      <c r="AG159" s="23"/>
+      <c r="AH159" s="23"/>
+      <c r="AI159" s="23"/>
+      <c r="AJ159" s="23"/>
+      <c r="AK159" s="23"/>
+      <c r="AL159" s="23"/>
+      <c r="AM159" s="23"/>
+      <c r="AN159" s="23"/>
+      <c r="AO159" s="23"/>
+      <c r="AP159" s="23"/>
+      <c r="AQ159" s="23"/>
+      <c r="AR159" s="23"/>
+      <c r="AS159" s="23"/>
+      <c r="AT159" s="23"/>
+      <c r="AU159" s="23"/>
+      <c r="AV159" s="23"/>
+      <c r="AW159" s="23"/>
+      <c r="AX159" s="23"/>
+      <c r="AY159" s="26"/>
+    </row>
+    <row r="160" spans="2:51" x14ac:dyDescent="0.45">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="G160" s="65"/>
+      <c r="H160" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I160" s="5"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="6"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="1"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+      <c r="AG160" s="1"/>
+      <c r="AH160" s="1"/>
+      <c r="AI160" s="1"/>
+      <c r="AJ160" s="1"/>
+      <c r="AK160" s="1"/>
+      <c r="AL160" s="1"/>
+      <c r="AM160" s="1"/>
+      <c r="AN160" s="1"/>
+      <c r="AO160" s="1"/>
+      <c r="AP160" s="1"/>
+      <c r="AQ160" s="1"/>
+      <c r="AR160" s="1"/>
+      <c r="AS160" s="1"/>
+      <c r="AT160" s="1"/>
+      <c r="AU160" s="1"/>
+      <c r="AV160" s="1"/>
+      <c r="AW160" s="1"/>
+      <c r="AX160" s="1"/>
+      <c r="AY160" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F157:G157"/>
     <mergeCell ref="I2:AB2"/>
     <mergeCell ref="AC2:AY2"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:F5"/>
-    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F160:G160"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10729,7 +11762,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10737,7 +11770,7 @@
     <col min="1" max="1" width="8.6640625" style="46"/>
     <col min="2" max="2" width="6.6640625" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="93" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="46" bestFit="1" customWidth="1"/>
@@ -10751,11 +11784,11 @@
       <c r="A1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="90" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="52" t="s">
@@ -10767,24 +11800,24 @@
       <c r="G1" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="103.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>164</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="89" t="s">
-        <v>216</v>
+      <c r="D2" s="91" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>167</v>
@@ -10793,16 +11826,16 @@
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="54"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="69" x14ac:dyDescent="0.45">
-      <c r="A3" s="80"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>217</v>
+      <c r="D3" s="92" t="s">
+        <v>213</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>168</v>
@@ -10811,18 +11844,18 @@
       <c r="G3" s="47"/>
       <c r="H3" s="50"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="54"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="46" x14ac:dyDescent="0.45">
-      <c r="A4" s="80"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="85" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="90" t="s">
-        <v>218</v>
+      <c r="D4" s="92" t="s">
+        <v>214</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>170</v>
@@ -10831,16 +11864,16 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="54"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="80.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="80"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>219</v>
+      <c r="D5" s="91" t="s">
+        <v>215</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>171</v>
@@ -10848,19 +11881,19 @@
       <c r="F5" s="48"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="80.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>220</v>
+      <c r="D6" s="91" t="s">
+        <v>216</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>176</v>
@@ -10869,17 +11902,19 @@
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A7" s="80"/>
-      <c r="B7" s="83" t="s">
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="1:10" ht="46" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
+      <c r="B7" s="84" t="s">
         <v>161</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="91" t="s">
+        <v>217</v>
+      </c>
       <c r="E7" s="47" t="s">
         <v>182</v>
       </c>
@@ -10887,15 +11922,17 @@
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="80"/>
-      <c r="B8" s="83"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" ht="46" x14ac:dyDescent="0.45">
+      <c r="A8" s="81"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="91" t="s">
+        <v>218</v>
+      </c>
       <c r="E8" s="47" t="s">
         <v>185</v>
       </c>
@@ -10903,41 +11940,45 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A9" s="81"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>183</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="81"/>
-      <c r="B10" s="59" t="s">
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:10" ht="58" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="82"/>
+      <c r="B10" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="60" t="s">
+      <c r="D10" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10956,10 +11997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10967,7 +12008,7 @@
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="97" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
@@ -10977,11 +12018,11 @@
       <c r="A1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="96" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="52" t="s">
@@ -10993,207 +12034,1050 @@
       <c r="G1" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="79" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+    </row>
+    <row r="2" spans="1:10" ht="57.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>187</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="91" t="s">
+        <v>221</v>
+      </c>
       <c r="E2" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>240</v>
+      </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="79"/>
-      <c r="B3" s="82"/>
+      <c r="J2" s="53"/>
+    </row>
+    <row r="3" spans="1:10" ht="115" x14ac:dyDescent="0.45">
+      <c r="A3" s="80"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+    </row>
+    <row r="4" spans="1:10" ht="92" x14ac:dyDescent="0.45">
+      <c r="A4" s="80"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="47" t="s">
+      <c r="D4" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A5" s="80"/>
+      <c r="B5" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="79"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="47" t="s">
+      <c r="F6" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+    </row>
+    <row r="7" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="80"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A8" s="80"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A9" s="80"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="79"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="79"/>
-      <c r="B6" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="79"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="79"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="79"/>
-      <c r="B9" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>244</v>
+      </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="79"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="47"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A10" s="80"/>
+      <c r="B10" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>231</v>
+      </c>
       <c r="E10" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+        <v>209</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>244</v>
+      </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="79"/>
-      <c r="B11" s="87" t="s">
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="80"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="46" x14ac:dyDescent="0.45">
+      <c r="A12" s="80"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="80"/>
+      <c r="B13" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="86"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="D13" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="87"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H6:J6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF6EA23-E899-4A57-B450-8A30EE6430B0}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="105"/>
+    </row>
+    <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A2" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="111"/>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="112"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="112"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="111"/>
+    </row>
+    <row r="5" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="112"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="111"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="112"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="111"/>
+    </row>
+    <row r="7" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="112"/>
+      <c r="B7" s="113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="111"/>
+    </row>
+    <row r="8" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="112"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="108" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="112"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="117" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="120"/>
+    </row>
+    <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="112"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="117" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A11" s="112"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="122"/>
+      <c r="B12" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="124" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C2B589-0D16-41ED-ABA4-76265F7E4C02}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="128.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="128"/>
+      <c r="D1" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.45">
+      <c r="A2" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.45">
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.45">
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="129"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="129"/>
+      <c r="B11" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.45">
+      <c r="A12" s="129"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="129"/>
+      <c r="B13" s="130" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="129"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2915EDA3-E47C-4B8E-931B-821E59CD68D2}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="105"/>
+    </row>
+    <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.45">
+      <c r="A2" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="111"/>
+    </row>
+    <row r="3" spans="1:10" ht="46" x14ac:dyDescent="0.45">
+      <c r="A3" s="112"/>
+      <c r="B3" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="112"/>
+      <c r="B4" s="136" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="120"/>
+    </row>
+    <row r="5" spans="1:10" ht="58" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="122"/>
+      <c r="B5" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
